--- a/mazeLib/maze5.xlsx
+++ b/mazeLib/maze5.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Documents\MATLAB\rnn_navigator\mazeLib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chansol-RIT\Documents\MATLAB\RNN_Classifier\mazeLib\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="80" windowWidth="20340" windowHeight="7940"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="20340" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -195,7 +195,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -500,12 +500,12 @@
   <dimension ref="A1:CY100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BM18" sqref="BM18"/>
+      <selection activeCell="BD3" sqref="BD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="100" width="0.83203125" customWidth="1"/>
+    <col min="1" max="100" width="0.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" ht="5.25" customHeight="1">
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="BD3" s="5">
-        <v>27</v>
+        <v>207</v>
       </c>
       <c r="BE3" s="7">
         <v>0</v>
@@ -2250,8 +2250,8 @@
       <c r="BY6" s="7">
         <v>0</v>
       </c>
-      <c r="BZ6" s="7">
-        <v>0</v>
+      <c r="BZ6" s="5">
+        <v>206</v>
       </c>
       <c r="CA6" s="7">
         <v>0</v>
@@ -3147,8 +3147,8 @@
       <c r="BV9" s="7">
         <v>0</v>
       </c>
-      <c r="BW9" s="5">
-        <v>26</v>
+      <c r="BW9" s="7">
+        <v>0</v>
       </c>
       <c r="BX9" s="7">
         <v>0</v>
@@ -30722,7 +30722,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30735,7 +30735,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
